--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H2">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>14734.28452296197</v>
+        <v>5715.191777441716</v>
       </c>
       <c r="R2">
-        <v>132608.5607066577</v>
+        <v>51436.72599697545</v>
       </c>
       <c r="S2">
-        <v>0.1747882531482239</v>
+        <v>0.06597996419544989</v>
       </c>
       <c r="T2">
-        <v>0.1747882531482239</v>
+        <v>0.06597996419544989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H3">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>13922.49902972231</v>
+        <v>9953.990374832372</v>
       </c>
       <c r="R3">
-        <v>125302.4912675008</v>
+        <v>89585.91337349135</v>
       </c>
       <c r="S3">
-        <v>0.165158293303665</v>
+        <v>0.1149154663760521</v>
       </c>
       <c r="T3">
-        <v>0.165158293303665</v>
+        <v>0.1149154663760521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H4">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>16329.09909355894</v>
+        <v>12296.92732830727</v>
       </c>
       <c r="R4">
-        <v>146961.8918420305</v>
+        <v>110672.3459547654</v>
       </c>
       <c r="S4">
-        <v>0.1937070443834255</v>
+        <v>0.1419638844033589</v>
       </c>
       <c r="T4">
-        <v>0.1937070443834255</v>
+        <v>0.1419638844033589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
         <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>7470.372792330721</v>
+        <v>4052.882479560264</v>
       </c>
       <c r="R5">
-        <v>67233.35513097649</v>
+        <v>36475.94231604238</v>
       </c>
       <c r="S5">
-        <v>0.0886187183845029</v>
+        <v>0.04678916321675077</v>
       </c>
       <c r="T5">
-        <v>0.0886187183845029</v>
+        <v>0.04678916321675077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
         <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
-        <v>7058.792559001061</v>
+        <v>7058.792559001059</v>
       </c>
       <c r="R6">
-        <v>63529.13303100955</v>
+        <v>63529.13303100954</v>
       </c>
       <c r="S6">
-        <v>0.08373626956916211</v>
+        <v>0.08149138269415626</v>
       </c>
       <c r="T6">
-        <v>0.08373626956916212</v>
+        <v>0.08149138269415628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
         <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>8278.953579435356</v>
+        <v>8720.267536434492</v>
       </c>
       <c r="R7">
-        <v>74510.58221491819</v>
+        <v>78482.40782791043</v>
       </c>
       <c r="S7">
-        <v>0.09821066179288387</v>
+        <v>0.1006725517242819</v>
       </c>
       <c r="T7">
-        <v>0.09821066179288389</v>
+        <v>0.1006725517242819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H8">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>5405.54671219032</v>
+        <v>7933.72808339735</v>
       </c>
       <c r="R8">
-        <v>48649.92040971287</v>
+        <v>71403.55275057616</v>
       </c>
       <c r="S8">
-        <v>0.06412432620412957</v>
+        <v>0.09159221864525277</v>
       </c>
       <c r="T8">
-        <v>0.06412432620412957</v>
+        <v>0.09159221864525277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H9">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>5107.72808400061</v>
+        <v>13817.953282055</v>
       </c>
       <c r="R9">
-        <v>45969.55275600549</v>
+        <v>124361.579538495</v>
       </c>
       <c r="S9">
-        <v>0.06059139607133916</v>
+        <v>0.159523616758228</v>
       </c>
       <c r="T9">
-        <v>0.06059139607133916</v>
+        <v>0.159523616758228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H10">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>5990.634141797704</v>
+        <v>17070.37689779128</v>
       </c>
       <c r="R10">
-        <v>53915.70727617933</v>
+        <v>153633.3920801215</v>
       </c>
       <c r="S10">
-        <v>0.07106503714266796</v>
+        <v>0.1970717519864695</v>
       </c>
       <c r="T10">
-        <v>0.07106503714266797</v>
+        <v>0.1970717519864695</v>
       </c>
     </row>
   </sheetData>
